--- a/culture_plate_counting/wasp_image_counting.xlsx
+++ b/culture_plate_counting/wasp_image_counting.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jmontgomery/OneDrive/Documents/IDbyDNA/Code/AbsoluteQuantification/culture_plate_counting/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC0F3C90-81C2-6146-AB85-57035E3F612B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2140C56A-41B1-6642-86E5-881B56A0094E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="920" yWindow="460" windowWidth="26040" windowHeight="14940" xr2:uid="{F88EBDB8-AFDE-DA4D-B2C5-563FAEF56804}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="26040" windowHeight="14940" xr2:uid="{F88EBDB8-AFDE-DA4D-B2C5-563FAEF56804}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="94">
   <si>
     <t>IDbyDNA-5383</t>
   </si>
@@ -294,21 +294,9 @@
     <t>15 confluent streaks</t>
   </si>
   <si>
-    <t>325 colonies</t>
-  </si>
-  <si>
-    <t>8 confluent colonies</t>
-  </si>
-  <si>
-    <t>425 colonies</t>
-  </si>
-  <si>
     <t>5 confluent streaks</t>
   </si>
   <si>
-    <t>103 colonies</t>
-  </si>
-  <si>
     <t>7 confluent streaks</t>
   </si>
   <si>
@@ -316,6 +304,15 @@
   </si>
   <si>
     <t>3 confluent streaks</t>
+  </si>
+  <si>
+    <t>9 confluent streaks</t>
+  </si>
+  <si>
+    <t>11 confluent streaks</t>
+  </si>
+  <si>
+    <t>17 confluent streaks</t>
   </si>
 </sst>
 </file>
@@ -673,10 +670,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF95712E-7C7B-7042-B615-CB02932650F7}">
-  <dimension ref="A1:E81"/>
+  <dimension ref="A1:C81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -684,7 +681,7 @@
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -692,193 +689,303 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="D2">
-        <v>13.66</v>
-      </c>
-      <c r="E2">
-        <v>31.22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C2">
+        <f>14*100*1000</f>
+        <v>1400000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C3">
+        <f>22*100*1000</f>
+        <v>2200000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C4">
+        <f>4*100*1000</f>
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C5">
+        <f>12*100*1000</f>
+        <v>1200000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C6">
+        <f>4*100*1000</f>
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>10</v>
       </c>
       <c r="B7" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C7">
+        <f>12*100*1000</f>
+        <v>1200000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>11</v>
       </c>
       <c r="B8" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C8">
+        <f>15*100*1000</f>
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>12</v>
       </c>
       <c r="B9" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C9">
+        <f>15*100*1000</f>
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>13</v>
       </c>
-      <c r="B10" t="s">
-        <v>87</v>
+      <c r="B10">
+        <v>325</v>
       </c>
       <c r="C10">
         <v>325000</v>
       </c>
-      <c r="D10">
-        <v>6.79</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+      <c r="C11">
+        <f>9*100*1000</f>
+        <v>900000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
-      <c r="B12" t="s">
-        <v>89</v>
+      <c r="B12">
+        <v>425</v>
       </c>
       <c r="C12">
         <v>425000</v>
       </c>
-      <c r="D12">
-        <v>5.37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+      <c r="C13">
+        <f>5*100*1000</f>
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+      <c r="C14">
+        <f>9*100*1000</f>
+        <v>900000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>18</v>
       </c>
-      <c r="B15" t="s">
-        <v>91</v>
+      <c r="B15">
+        <v>105</v>
       </c>
       <c r="C15">
-        <v>103000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+        <f>B15*1000</f>
+        <v>105000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16">
+        <f>11*100*1000</f>
+        <v>1100000</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>20</v>
       </c>
+      <c r="B17" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17">
+        <f>7*100*1000</f>
+        <v>700000</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>21</v>
       </c>
+      <c r="B18">
+        <v>100</v>
+      </c>
+      <c r="C18">
+        <f>B18*1000</f>
+        <v>100000</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>22</v>
       </c>
+      <c r="B19" t="s">
+        <v>92</v>
+      </c>
+      <c r="C19">
+        <f>11*100*1000</f>
+        <v>1100000</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>23</v>
       </c>
+      <c r="B20" t="s">
+        <v>93</v>
+      </c>
+      <c r="C20">
+        <f>17*100*1000</f>
+        <v>1700000</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>24</v>
       </c>
+      <c r="B21" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21">
+        <f>7*100*1000</f>
+        <v>700000</v>
+      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>25</v>
       </c>
+      <c r="B22" t="s">
+        <v>87</v>
+      </c>
+      <c r="C22">
+        <f>5*100*1000</f>
+        <v>500000</v>
+      </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>26</v>
       </c>
+      <c r="B23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23">
+        <f>22*100*1000</f>
+        <v>2200000</v>
+      </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>27</v>
       </c>
+      <c r="B24" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24">
+        <f>5*100*1000</f>
+        <v>500000</v>
+      </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>28</v>
       </c>
+      <c r="B25" t="s">
+        <v>90</v>
+      </c>
+      <c r="C25">
+        <f>3*100*1000</f>
+        <v>300000</v>
+      </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>29</v>
       </c>
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26">
+        <f>4*100*1000</f>
+        <v>400000</v>
+      </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
@@ -923,13 +1030,21 @@
       <c r="B30" t="s">
         <v>6</v>
       </c>
+      <c r="C30">
+        <f>4*100*1000</f>
+        <v>400000</v>
+      </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>94</v>
+        <v>90</v>
+      </c>
+      <c r="C31">
+        <f>3*100*1000</f>
+        <v>300000</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -942,7 +1057,11 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>93</v>
+        <v>89</v>
+      </c>
+      <c r="C33">
+        <f>21*100*1000</f>
+        <v>2100000</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -950,7 +1069,11 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>92</v>
+        <v>88</v>
+      </c>
+      <c r="C34">
+        <f>7*100*1000</f>
+        <v>700000</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -959,6 +1082,10 @@
       </c>
       <c r="B35" t="s">
         <v>85</v>
+      </c>
+      <c r="C35">
+        <f>12*100*1000</f>
+        <v>1200000</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">

--- a/culture_plate_counting/wasp_image_counting.xlsx
+++ b/culture_plate_counting/wasp_image_counting.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jmontgomery/OneDrive/Documents/IDbyDNA/Code/AbsoluteQuantification/culture_plate_counting/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DFB1601-5F2B-C443-BC07-5DC45530FCFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB8C004B-977F-974A-9EB3-40D94FEFA057}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="34340" yWindow="460" windowWidth="16380" windowHeight="14940" xr2:uid="{F88EBDB8-AFDE-DA4D-B2C5-563FAEF56804}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>IDbyDNA-5383</t>
   </si>
@@ -292,13 +292,85 @@
   </si>
   <si>
     <t>cfu/ml</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>No middle streak</t>
+  </si>
+  <si>
+    <t>Very small colonies</t>
+  </si>
+  <si>
+    <t>IDbyDNA-5463</t>
+  </si>
+  <si>
+    <t>IDbyDNA-5464</t>
+  </si>
+  <si>
+    <t>IDbyDNA-5465</t>
+  </si>
+  <si>
+    <t>IDbyDNA-5466</t>
+  </si>
+  <si>
+    <t>IDbyDNA-5467</t>
+  </si>
+  <si>
+    <t>IDbyDNA-5468</t>
+  </si>
+  <si>
+    <t>IDbyDNA-5469</t>
+  </si>
+  <si>
+    <t>IDbyDNA-5470</t>
+  </si>
+  <si>
+    <t>IDbyDNA-5471</t>
+  </si>
+  <si>
+    <t>IDbyDNA-5472</t>
+  </si>
+  <si>
+    <t>IDbyDNA-5473</t>
+  </si>
+  <si>
+    <t>IDbyDNA-5474</t>
+  </si>
+  <si>
+    <t>IDbyDNA-5475</t>
+  </si>
+  <si>
+    <t>IDbyDNA-5476</t>
+  </si>
+  <si>
+    <t>IDbyDNA-5477</t>
+  </si>
+  <si>
+    <t>IDbyDNA-5478</t>
+  </si>
+  <si>
+    <t>IDbyDNA-5479</t>
+  </si>
+  <si>
+    <t>IDbyDNA-5480</t>
+  </si>
+  <si>
+    <t>IDbyDNA-5481</t>
+  </si>
+  <si>
+    <t>IDbyDNA-5482</t>
+  </si>
+  <si>
+    <t>IDbyDNA-5484</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -312,13 +384,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -333,9 +417,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -650,10 +737,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF95712E-7C7B-7042-B615-CB02932650F7}">
-  <dimension ref="A1:F83"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G16:G17"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -679,6 +766,9 @@
       <c r="E1" s="1" t="s">
         <v>86</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -878,7 +968,7 @@
       </c>
       <c r="F16"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -891,7 +981,7 @@
       </c>
       <c r="F17"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -904,7 +994,7 @@
       </c>
       <c r="F18"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -917,7 +1007,7 @@
       </c>
       <c r="F19"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -930,7 +1020,7 @@
       </c>
       <c r="F20"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -943,7 +1033,7 @@
       </c>
       <c r="F21"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -955,8 +1045,9 @@
         <v>1700000</v>
       </c>
       <c r="F22"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -968,8 +1059,9 @@
         <v>700000</v>
       </c>
       <c r="F23"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -981,8 +1073,9 @@
         <v>500000</v>
       </c>
       <c r="F24"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I24" s="2"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -994,8 +1087,9 @@
         <v>2200000</v>
       </c>
       <c r="F25"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I25" s="2"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -1008,7 +1102,7 @@
       </c>
       <c r="F26"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -1021,7 +1115,7 @@
       </c>
       <c r="F27"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -1034,7 +1128,7 @@
       </c>
       <c r="F28"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -1047,7 +1141,7 @@
       </c>
       <c r="F29"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -1060,7 +1154,7 @@
       </c>
       <c r="F30"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>28</v>
       </c>
@@ -1073,7 +1167,7 @@
       </c>
       <c r="F31"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>29</v>
       </c>
@@ -1100,10 +1194,13 @@
       <c r="F33"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+      <c r="A34" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E34" s="1">
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1308,9 +1405,12 @@
       <c r="A50" t="s">
         <v>47</v>
       </c>
+      <c r="B50">
+        <v>20</v>
+      </c>
       <c r="E50" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2000000</v>
       </c>
       <c r="F50"/>
     </row>
@@ -1318,9 +1418,12 @@
       <c r="A51" t="s">
         <v>48</v>
       </c>
+      <c r="B51">
+        <v>11</v>
+      </c>
       <c r="E51" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1100000</v>
       </c>
       <c r="F51"/>
     </row>
@@ -1328,9 +1431,12 @@
       <c r="A52" t="s">
         <v>49</v>
       </c>
+      <c r="B52">
+        <v>4</v>
+      </c>
       <c r="E52" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>400000</v>
       </c>
       <c r="F52"/>
     </row>
@@ -1338,9 +1444,12 @@
       <c r="A53" t="s">
         <v>50</v>
       </c>
+      <c r="B53">
+        <v>8</v>
+      </c>
       <c r="E53" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>800000</v>
       </c>
       <c r="F53"/>
     </row>
@@ -1348,9 +1457,12 @@
       <c r="A54" t="s">
         <v>51</v>
       </c>
+      <c r="B54">
+        <v>22</v>
+      </c>
       <c r="E54" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2200000</v>
       </c>
       <c r="F54"/>
     </row>
@@ -1358,9 +1470,12 @@
       <c r="A55" t="s">
         <v>52</v>
       </c>
+      <c r="B55">
+        <v>14</v>
+      </c>
       <c r="E55" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1400000</v>
       </c>
       <c r="F55"/>
     </row>
@@ -1368,27 +1483,38 @@
       <c r="A56" t="s">
         <v>53</v>
       </c>
+      <c r="C56">
+        <v>55</v>
+      </c>
       <c r="E56" s="1">
         <f t="shared" si="0"/>
+        <v>55000</v>
+      </c>
+      <c r="F56" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="4">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F56"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>54</v>
-      </c>
-      <c r="E57" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
       <c r="F57"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
+      <c r="A58" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E58" s="1">
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1398,9 +1524,12 @@
       <c r="A59" t="s">
         <v>56</v>
       </c>
+      <c r="B59">
+        <v>14</v>
+      </c>
       <c r="E59" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1400000</v>
       </c>
       <c r="F59"/>
     </row>
@@ -1408,9 +1537,12 @@
       <c r="A60" t="s">
         <v>57</v>
       </c>
+      <c r="B60">
+        <v>10</v>
+      </c>
       <c r="E60" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1000000</v>
       </c>
       <c r="F60"/>
     </row>
@@ -1418,9 +1550,12 @@
       <c r="A61" t="s">
         <v>58</v>
       </c>
+      <c r="B61">
+        <v>13</v>
+      </c>
       <c r="E61" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1300000</v>
       </c>
       <c r="F61"/>
     </row>
@@ -1428,9 +1563,12 @@
       <c r="A62" t="s">
         <v>59</v>
       </c>
+      <c r="B62">
+        <v>18</v>
+      </c>
       <c r="E62" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1800000</v>
       </c>
       <c r="F62"/>
     </row>
@@ -1438,9 +1576,12 @@
       <c r="A63" t="s">
         <v>60</v>
       </c>
+      <c r="B63">
+        <v>11</v>
+      </c>
       <c r="E63" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1100000</v>
       </c>
       <c r="F63"/>
     </row>
@@ -1448,9 +1589,12 @@
       <c r="A64" t="s">
         <v>61</v>
       </c>
+      <c r="B64">
+        <v>14</v>
+      </c>
       <c r="E64" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1400000</v>
       </c>
       <c r="F64"/>
     </row>
@@ -1458,19 +1602,27 @@
       <c r="A65" t="s">
         <v>62</v>
       </c>
+      <c r="C65">
+        <v>200</v>
+      </c>
       <c r="E65" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F65"/>
+        <v>200000</v>
+      </c>
+      <c r="F65" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>63</v>
       </c>
+      <c r="C66">
+        <v>115</v>
+      </c>
       <c r="E66" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>115000</v>
       </c>
       <c r="F66"/>
     </row>
@@ -1478,9 +1630,12 @@
       <c r="A67" t="s">
         <v>64</v>
       </c>
+      <c r="C67">
+        <v>205</v>
+      </c>
       <c r="E67" s="1">
-        <f t="shared" ref="E67:E83" si="1">IF(ISBLANK(C67),B67*$D$2*1000,C67*1000)</f>
-        <v>0</v>
+        <f t="shared" ref="E67:E104" si="1">IF(ISBLANK(C67),B67*$D$2*1000,C67*1000)</f>
+        <v>205000</v>
       </c>
       <c r="F67"/>
     </row>
@@ -1488,9 +1643,12 @@
       <c r="A68" t="s">
         <v>65</v>
       </c>
+      <c r="C68">
+        <v>60</v>
+      </c>
       <c r="E68" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="F68"/>
     </row>
@@ -1505,10 +1663,13 @@
       <c r="F69"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
+      <c r="A70" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E70" s="1">
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1518,9 +1679,12 @@
       <c r="A71" t="s">
         <v>68</v>
       </c>
+      <c r="C71">
+        <v>75</v>
+      </c>
       <c r="E71" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>75000</v>
       </c>
       <c r="F71"/>
     </row>
@@ -1554,9 +1718,12 @@
       <c r="A74" t="s">
         <v>71</v>
       </c>
+      <c r="B74">
+        <v>12</v>
+      </c>
       <c r="E74" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1200000</v>
       </c>
       <c r="F74"/>
     </row>
@@ -1564,9 +1731,12 @@
       <c r="A75" t="s">
         <v>72</v>
       </c>
+      <c r="B75">
+        <v>13</v>
+      </c>
       <c r="E75" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1300000</v>
       </c>
       <c r="F75"/>
     </row>
@@ -1574,9 +1744,12 @@
       <c r="A76" t="s">
         <v>73</v>
       </c>
+      <c r="B76">
+        <v>4</v>
+      </c>
       <c r="E76" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>400000</v>
       </c>
       <c r="F76"/>
     </row>
@@ -1584,9 +1757,12 @@
       <c r="A77" t="s">
         <v>74</v>
       </c>
+      <c r="B77">
+        <v>11</v>
+      </c>
       <c r="E77" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1100000</v>
       </c>
       <c r="F77"/>
     </row>
@@ -1594,9 +1770,12 @@
       <c r="A78" t="s">
         <v>75</v>
       </c>
+      <c r="B78">
+        <v>11</v>
+      </c>
       <c r="E78" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1100000</v>
       </c>
       <c r="F78"/>
     </row>
@@ -1604,9 +1783,12 @@
       <c r="A79" t="s">
         <v>76</v>
       </c>
+      <c r="B79">
+        <v>19</v>
+      </c>
       <c r="E79" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1900000</v>
       </c>
       <c r="F79"/>
     </row>
@@ -1614,9 +1796,12 @@
       <c r="A80" t="s">
         <v>77</v>
       </c>
+      <c r="B80">
+        <v>14</v>
+      </c>
       <c r="E80" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1400000</v>
       </c>
       <c r="F80"/>
     </row>
@@ -1624,9 +1809,12 @@
       <c r="A81" t="s">
         <v>78</v>
       </c>
+      <c r="B81">
+        <v>4</v>
+      </c>
       <c r="E81" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>400000</v>
       </c>
       <c r="F81"/>
     </row>
@@ -1634,9 +1822,12 @@
       <c r="A82" t="s">
         <v>79</v>
       </c>
+      <c r="B82">
+        <v>16</v>
+      </c>
       <c r="E82" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1600000</v>
       </c>
       <c r="F82"/>
     </row>
@@ -1644,11 +1835,266 @@
       <c r="A83" t="s">
         <v>80</v>
       </c>
+      <c r="B83">
+        <v>18</v>
+      </c>
       <c r="E83" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1800000</v>
       </c>
       <c r="F83"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>90</v>
+      </c>
+      <c r="B84">
+        <v>21</v>
+      </c>
+      <c r="E84" s="1">
+        <f t="shared" si="1"/>
+        <v>2100000</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>91</v>
+      </c>
+      <c r="B85">
+        <v>6</v>
+      </c>
+      <c r="E85" s="1">
+        <f t="shared" si="1"/>
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>92</v>
+      </c>
+      <c r="B86">
+        <v>20</v>
+      </c>
+      <c r="E86" s="1">
+        <f t="shared" si="1"/>
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>93</v>
+      </c>
+      <c r="B87">
+        <v>21</v>
+      </c>
+      <c r="E87" s="1">
+        <f t="shared" si="1"/>
+        <v>2100000</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>94</v>
+      </c>
+      <c r="B88">
+        <v>22</v>
+      </c>
+      <c r="E88" s="1">
+        <f t="shared" si="1"/>
+        <v>2200000</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>95</v>
+      </c>
+      <c r="B89">
+        <v>9</v>
+      </c>
+      <c r="E89" s="1">
+        <f t="shared" si="1"/>
+        <v>900000</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>96</v>
+      </c>
+      <c r="B90">
+        <v>3</v>
+      </c>
+      <c r="E90" s="1">
+        <f t="shared" si="1"/>
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>97</v>
+      </c>
+      <c r="B91">
+        <v>11</v>
+      </c>
+      <c r="E91" s="1">
+        <f t="shared" si="1"/>
+        <v>1100000</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>98</v>
+      </c>
+      <c r="B92">
+        <v>12</v>
+      </c>
+      <c r="E92" s="1">
+        <f t="shared" si="1"/>
+        <v>1200000</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>99</v>
+      </c>
+      <c r="B93">
+        <v>4</v>
+      </c>
+      <c r="E93" s="1">
+        <f t="shared" si="1"/>
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>100</v>
+      </c>
+      <c r="B94">
+        <v>12</v>
+      </c>
+      <c r="E94" s="1">
+        <f t="shared" si="1"/>
+        <v>1200000</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>101</v>
+      </c>
+      <c r="B95">
+        <v>4</v>
+      </c>
+      <c r="E95" s="1">
+        <f t="shared" si="1"/>
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>102</v>
+      </c>
+      <c r="B96">
+        <v>5</v>
+      </c>
+      <c r="E96" s="1">
+        <f t="shared" si="1"/>
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>103</v>
+      </c>
+      <c r="B97">
+        <v>8</v>
+      </c>
+      <c r="E97" s="1">
+        <f t="shared" si="1"/>
+        <v>800000</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>104</v>
+      </c>
+      <c r="B98">
+        <v>9</v>
+      </c>
+      <c r="E98" s="1">
+        <f t="shared" si="1"/>
+        <v>900000</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>105</v>
+      </c>
+      <c r="B99">
+        <v>15</v>
+      </c>
+      <c r="E99" s="1">
+        <f t="shared" si="1"/>
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>106</v>
+      </c>
+      <c r="B100">
+        <v>4</v>
+      </c>
+      <c r="E100" s="1">
+        <f t="shared" si="1"/>
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>107</v>
+      </c>
+      <c r="B101">
+        <v>5</v>
+      </c>
+      <c r="E101" s="1">
+        <f t="shared" si="1"/>
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>108</v>
+      </c>
+      <c r="B102">
+        <v>6</v>
+      </c>
+      <c r="E102" s="1">
+        <f t="shared" si="1"/>
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>109</v>
+      </c>
+      <c r="C103">
+        <v>295</v>
+      </c>
+      <c r="E103" s="1">
+        <f t="shared" si="1"/>
+        <v>295000</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>110</v>
+      </c>
+      <c r="B104">
+        <v>6</v>
+      </c>
+      <c r="E104" s="1">
+        <f t="shared" si="1"/>
+        <v>600000</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/culture_plate_counting/wasp_image_counting.xlsx
+++ b/culture_plate_counting/wasp_image_counting.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jmontgomery/OneDrive/Documents/IDbyDNA/Code/AbsoluteQuantification/culture_plate_counting/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB8C004B-977F-974A-9EB3-40D94FEFA057}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97D2BA7A-D1F5-8340-8E80-DF6BAFFFE11E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34340" yWindow="460" windowWidth="16380" windowHeight="14940" xr2:uid="{F88EBDB8-AFDE-DA4D-B2C5-563FAEF56804}"/>
+    <workbookView xWindow="15620" yWindow="600" windowWidth="16380" windowHeight="14940" xr2:uid="{F88EBDB8-AFDE-DA4D-B2C5-563FAEF56804}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,9 +36,6 @@
     <t>IDbyDNA-5383</t>
   </si>
   <si>
-    <t>Sample</t>
-  </si>
-  <si>
     <t>IDbyDNA-5384</t>
   </si>
   <si>
@@ -364,6 +361,9 @@
   </si>
   <si>
     <t>IDbyDNA-5484</t>
+  </si>
+  <si>
+    <t>IDBD #</t>
   </si>
 </sst>
 </file>
@@ -740,7 +740,7 @@
   <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -752,50 +752,50 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>110</v>
       </c>
       <c r="B1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" t="s">
         <v>84</v>
       </c>
-      <c r="C1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B2">
         <v>11</v>
       </c>
       <c r="D2">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="E2" s="1">
         <f>IF(ISBLANK(C2),B2*$D$2*1000,C2*1000)</f>
-        <v>1100000</v>
+        <v>825000</v>
       </c>
       <c r="F2"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B3">
         <v>5</v>
       </c>
       <c r="E3" s="1">
         <f t="shared" ref="E3:E66" si="0">IF(ISBLANK(C3),B3*$D$2*1000,C3*1000)</f>
-        <v>500000</v>
+        <v>375000</v>
       </c>
       <c r="F3"/>
     </row>
@@ -808,104 +808,104 @@
       </c>
       <c r="E4" s="1">
         <f t="shared" si="0"/>
-        <v>1400000</v>
+        <v>1050000</v>
       </c>
       <c r="F4"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5">
         <v>22</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" si="0"/>
-        <v>2200000</v>
+        <v>1650000</v>
       </c>
       <c r="F5"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6">
         <v>4</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="0"/>
-        <v>400000</v>
+        <v>300000</v>
       </c>
       <c r="F6"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7">
         <v>12</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="0"/>
-        <v>1200000</v>
+        <v>900000</v>
       </c>
       <c r="F7"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8">
         <v>4</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" si="0"/>
-        <v>400000</v>
+        <v>300000</v>
       </c>
       <c r="F8"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9">
         <v>12</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" si="0"/>
-        <v>1200000</v>
+        <v>900000</v>
       </c>
       <c r="F9"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10">
         <v>15</v>
       </c>
       <c r="E10" s="1">
         <f t="shared" si="0"/>
-        <v>1500000</v>
+        <v>1125000</v>
       </c>
       <c r="F10"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11">
         <v>15</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" si="0"/>
-        <v>1500000</v>
+        <v>1125000</v>
       </c>
       <c r="F11"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12">
         <v>325</v>
@@ -918,20 +918,20 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13">
         <v>9</v>
       </c>
       <c r="E13" s="1">
         <f t="shared" si="0"/>
-        <v>900000</v>
+        <v>675000</v>
       </c>
       <c r="F13"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C14">
         <v>425</v>
@@ -944,33 +944,33 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B15">
         <v>5</v>
       </c>
       <c r="E15" s="1">
         <f t="shared" si="0"/>
-        <v>500000</v>
+        <v>375000</v>
       </c>
       <c r="F15"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16">
         <v>9</v>
       </c>
       <c r="E16" s="1">
         <f t="shared" si="0"/>
-        <v>900000</v>
+        <v>675000</v>
       </c>
       <c r="F16"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C17">
         <v>105</v>
@@ -983,33 +983,33 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B18">
         <v>11</v>
       </c>
       <c r="E18" s="1">
         <f t="shared" si="0"/>
-        <v>1100000</v>
+        <v>825000</v>
       </c>
       <c r="F18"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B19">
         <v>7</v>
       </c>
       <c r="E19" s="1">
         <f t="shared" si="0"/>
-        <v>700000</v>
+        <v>525000</v>
       </c>
       <c r="F19"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C20">
         <v>100</v>
@@ -1022,115 +1022,115 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B21">
         <v>11</v>
       </c>
       <c r="E21" s="1">
         <f t="shared" si="0"/>
-        <v>1100000</v>
+        <v>825000</v>
       </c>
       <c r="F21"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B22">
         <v>17</v>
       </c>
       <c r="E22" s="1">
         <f t="shared" si="0"/>
-        <v>1700000</v>
+        <v>1275000</v>
       </c>
       <c r="F22"/>
       <c r="I22" s="2"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B23">
         <v>7</v>
       </c>
       <c r="E23" s="1">
         <f t="shared" si="0"/>
-        <v>700000</v>
+        <v>525000</v>
       </c>
       <c r="F23"/>
       <c r="I23" s="2"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B24">
         <v>5</v>
       </c>
       <c r="E24" s="1">
         <f t="shared" si="0"/>
-        <v>500000</v>
+        <v>375000</v>
       </c>
       <c r="F24"/>
       <c r="I24" s="2"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B25">
         <v>22</v>
       </c>
       <c r="E25" s="1">
         <f t="shared" si="0"/>
-        <v>2200000</v>
+        <v>1650000</v>
       </c>
       <c r="F25"/>
       <c r="I25" s="2"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B26">
         <v>5</v>
       </c>
       <c r="E26" s="1">
         <f t="shared" si="0"/>
-        <v>500000</v>
+        <v>375000</v>
       </c>
       <c r="F26"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B27">
         <v>3</v>
       </c>
       <c r="E27" s="1">
         <f t="shared" si="0"/>
-        <v>300000</v>
+        <v>225000</v>
       </c>
       <c r="F27"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28">
         <v>4</v>
       </c>
       <c r="E28" s="1">
         <f t="shared" si="0"/>
-        <v>400000</v>
+        <v>300000</v>
       </c>
       <c r="F28"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29">
         <v>500</v>
@@ -1143,7 +1143,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C30">
         <v>240</v>
@@ -1156,7 +1156,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C31">
         <v>250</v>
@@ -1169,33 +1169,33 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B32">
         <v>4</v>
       </c>
       <c r="E32" s="1">
         <f t="shared" si="0"/>
-        <v>400000</v>
+        <v>300000</v>
       </c>
       <c r="F32"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B33">
         <v>3</v>
       </c>
       <c r="E33" s="1">
         <f t="shared" si="0"/>
-        <v>300000</v>
+        <v>225000</v>
       </c>
       <c r="F33"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -1208,46 +1208,46 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B35">
         <v>21</v>
       </c>
       <c r="E35" s="1">
         <f t="shared" si="0"/>
-        <v>2100000</v>
+        <v>1575000</v>
       </c>
       <c r="F35"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B36">
         <v>7</v>
       </c>
       <c r="E36" s="1">
         <f t="shared" si="0"/>
-        <v>700000</v>
+        <v>525000</v>
       </c>
       <c r="F36"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B37">
         <v>12</v>
       </c>
       <c r="E37" s="1">
         <f t="shared" si="0"/>
-        <v>1200000</v>
+        <v>900000</v>
       </c>
       <c r="F37"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C38">
         <v>20</v>
@@ -1260,7 +1260,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C39">
         <v>15</v>
@@ -1273,7 +1273,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C40">
         <v>25</v>
@@ -1286,7 +1286,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C41">
         <v>20</v>
@@ -1299,7 +1299,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C42">
         <v>45</v>
@@ -1312,7 +1312,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C43">
         <v>80</v>
@@ -1325,7 +1325,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C44">
         <v>65</v>
@@ -1338,7 +1338,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C45">
         <v>285</v>
@@ -1351,7 +1351,7 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C46">
         <v>150</v>
@@ -1364,7 +1364,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C47">
         <v>220</v>
@@ -1377,7 +1377,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C48">
         <v>400</v>
@@ -1390,7 +1390,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C49">
         <v>180</v>
@@ -1403,85 +1403,85 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B50">
         <v>20</v>
       </c>
       <c r="E50" s="1">
         <f t="shared" si="0"/>
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
       <c r="F50"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B51">
         <v>11</v>
       </c>
       <c r="E51" s="1">
         <f t="shared" si="0"/>
-        <v>1100000</v>
+        <v>825000</v>
       </c>
       <c r="F51"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B52">
         <v>4</v>
       </c>
       <c r="E52" s="1">
         <f t="shared" si="0"/>
-        <v>400000</v>
+        <v>300000</v>
       </c>
       <c r="F52"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B53">
         <v>8</v>
       </c>
       <c r="E53" s="1">
         <f t="shared" si="0"/>
-        <v>800000</v>
+        <v>600000</v>
       </c>
       <c r="F53"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B54">
         <v>22</v>
       </c>
       <c r="E54" s="1">
         <f t="shared" si="0"/>
-        <v>2200000</v>
+        <v>1650000</v>
       </c>
       <c r="F54"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B55">
         <v>14</v>
       </c>
       <c r="E55" s="1">
         <f t="shared" si="0"/>
-        <v>1400000</v>
+        <v>1050000</v>
       </c>
       <c r="F55"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C56">
         <v>55</v>
@@ -1491,12 +1491,12 @@
         <v>55000</v>
       </c>
       <c r="F56" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -1509,7 +1509,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -1522,85 +1522,85 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B59">
         <v>14</v>
       </c>
       <c r="E59" s="1">
         <f t="shared" si="0"/>
-        <v>1400000</v>
+        <v>1050000</v>
       </c>
       <c r="F59"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B60">
         <v>10</v>
       </c>
       <c r="E60" s="1">
         <f t="shared" si="0"/>
-        <v>1000000</v>
+        <v>750000</v>
       </c>
       <c r="F60"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B61">
         <v>13</v>
       </c>
       <c r="E61" s="1">
         <f t="shared" si="0"/>
-        <v>1300000</v>
+        <v>975000</v>
       </c>
       <c r="F61"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B62">
         <v>18</v>
       </c>
       <c r="E62" s="1">
         <f t="shared" si="0"/>
-        <v>1800000</v>
+        <v>1350000</v>
       </c>
       <c r="F62"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B63">
         <v>11</v>
       </c>
       <c r="E63" s="1">
         <f t="shared" si="0"/>
-        <v>1100000</v>
+        <v>825000</v>
       </c>
       <c r="F63"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B64">
         <v>14</v>
       </c>
       <c r="E64" s="1">
         <f t="shared" si="0"/>
-        <v>1400000</v>
+        <v>1050000</v>
       </c>
       <c r="F64"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C65">
         <v>200</v>
@@ -1610,12 +1610,12 @@
         <v>200000</v>
       </c>
       <c r="F65" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C66">
         <v>115</v>
@@ -1628,7 +1628,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C67">
         <v>205</v>
@@ -1641,7 +1641,7 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C68">
         <v>60</v>
@@ -1654,7 +1654,7 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E69" s="1">
         <f t="shared" si="1"/>
@@ -1664,7 +1664,7 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -1677,7 +1677,7 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C71">
         <v>75</v>
@@ -1690,7 +1690,7 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C72">
         <v>80</v>
@@ -1703,7 +1703,7 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C73">
         <v>80</v>
@@ -1716,365 +1716,365 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B74">
         <v>12</v>
       </c>
       <c r="E74" s="1">
         <f t="shared" si="1"/>
-        <v>1200000</v>
+        <v>900000</v>
       </c>
       <c r="F74"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B75">
         <v>13</v>
       </c>
       <c r="E75" s="1">
         <f t="shared" si="1"/>
-        <v>1300000</v>
+        <v>975000</v>
       </c>
       <c r="F75"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B76">
         <v>4</v>
       </c>
       <c r="E76" s="1">
         <f t="shared" si="1"/>
-        <v>400000</v>
+        <v>300000</v>
       </c>
       <c r="F76"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B77">
         <v>11</v>
       </c>
       <c r="E77" s="1">
         <f t="shared" si="1"/>
-        <v>1100000</v>
+        <v>825000</v>
       </c>
       <c r="F77"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B78">
         <v>11</v>
       </c>
       <c r="E78" s="1">
         <f t="shared" si="1"/>
-        <v>1100000</v>
+        <v>825000</v>
       </c>
       <c r="F78"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B79">
         <v>19</v>
       </c>
       <c r="E79" s="1">
         <f t="shared" si="1"/>
-        <v>1900000</v>
+        <v>1425000</v>
       </c>
       <c r="F79"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B80">
         <v>14</v>
       </c>
       <c r="E80" s="1">
         <f t="shared" si="1"/>
-        <v>1400000</v>
+        <v>1050000</v>
       </c>
       <c r="F80"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B81">
         <v>4</v>
       </c>
       <c r="E81" s="1">
         <f t="shared" si="1"/>
-        <v>400000</v>
+        <v>300000</v>
       </c>
       <c r="F81"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B82">
         <v>16</v>
       </c>
       <c r="E82" s="1">
         <f t="shared" si="1"/>
-        <v>1600000</v>
+        <v>1200000</v>
       </c>
       <c r="F82"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B83">
         <v>18</v>
       </c>
       <c r="E83" s="1">
         <f t="shared" si="1"/>
-        <v>1800000</v>
+        <v>1350000</v>
       </c>
       <c r="F83"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>21</v>
       </c>
       <c r="E84" s="1">
         <f t="shared" si="1"/>
-        <v>2100000</v>
+        <v>1575000</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B85">
         <v>6</v>
       </c>
       <c r="E85" s="1">
         <f t="shared" si="1"/>
-        <v>600000</v>
+        <v>450000</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B86">
         <v>20</v>
       </c>
       <c r="E86" s="1">
         <f t="shared" si="1"/>
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B87">
         <v>21</v>
       </c>
       <c r="E87" s="1">
         <f t="shared" si="1"/>
-        <v>2100000</v>
+        <v>1575000</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B88">
         <v>22</v>
       </c>
       <c r="E88" s="1">
         <f t="shared" si="1"/>
-        <v>2200000</v>
+        <v>1650000</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B89">
         <v>9</v>
       </c>
       <c r="E89" s="1">
         <f t="shared" si="1"/>
-        <v>900000</v>
+        <v>675000</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B90">
         <v>3</v>
       </c>
       <c r="E90" s="1">
         <f t="shared" si="1"/>
-        <v>300000</v>
+        <v>225000</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B91">
         <v>11</v>
       </c>
       <c r="E91" s="1">
         <f t="shared" si="1"/>
-        <v>1100000</v>
+        <v>825000</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B92">
         <v>12</v>
       </c>
       <c r="E92" s="1">
         <f t="shared" si="1"/>
-        <v>1200000</v>
+        <v>900000</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B93">
         <v>4</v>
       </c>
       <c r="E93" s="1">
         <f t="shared" si="1"/>
-        <v>400000</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B94">
         <v>12</v>
       </c>
       <c r="E94" s="1">
         <f t="shared" si="1"/>
-        <v>1200000</v>
+        <v>900000</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B95">
         <v>4</v>
       </c>
       <c r="E95" s="1">
         <f t="shared" si="1"/>
-        <v>400000</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>5</v>
       </c>
       <c r="E96" s="1">
         <f t="shared" si="1"/>
-        <v>500000</v>
+        <v>375000</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>8</v>
       </c>
       <c r="E97" s="1">
         <f t="shared" si="1"/>
-        <v>800000</v>
+        <v>600000</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B98">
         <v>9</v>
       </c>
       <c r="E98" s="1">
         <f t="shared" si="1"/>
-        <v>900000</v>
+        <v>675000</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>15</v>
       </c>
       <c r="E99" s="1">
         <f t="shared" si="1"/>
-        <v>1500000</v>
+        <v>1125000</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>4</v>
       </c>
       <c r="E100" s="1">
         <f t="shared" si="1"/>
-        <v>400000</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B101">
         <v>5</v>
       </c>
       <c r="E101" s="1">
         <f t="shared" si="1"/>
-        <v>500000</v>
+        <v>375000</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B102">
         <v>6</v>
       </c>
       <c r="E102" s="1">
         <f t="shared" si="1"/>
-        <v>600000</v>
+        <v>450000</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C103">
         <v>295</v>
@@ -2086,14 +2086,14 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>6</v>
       </c>
       <c r="E104" s="1">
         <f t="shared" si="1"/>
-        <v>600000</v>
+        <v>450000</v>
       </c>
     </row>
   </sheetData>
